--- a/public/uploads/contohIsianUser.xlsx
+++ b/public/uploads/contohIsianUser.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KOMSI\SEMSTER 5\BismillahTA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\TA-Admin\public\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B130BD2D-FC93-49AC-A052-D986E7249D13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B95DE08-DA03-45EA-AC13-7EF4C3D106C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{08B2D440-ED35-4BB9-822B-4037F140C20B}"/>
   </bookViews>
@@ -33,18 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Nama Lengkap</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Username</t>
   </si>
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>Role</t>
   </si>
   <si>
     <t>Nofa Dwi Adelia</t>
@@ -59,7 +53,16 @@
     <t>17/415526/SV/13391</t>
   </si>
   <si>
-    <t>17/41030/SV/12757</t>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>id_periode</t>
+  </si>
+  <si>
+    <t>id_roles</t>
+  </si>
+  <si>
+    <t>17/410830/SV/12757</t>
   </si>
 </sst>
 </file>
@@ -134,7 +137,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>528205</xdr:colOff>
+      <xdr:colOff>346363</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>135082</xdr:rowOff>
     </xdr:to>
@@ -152,7 +155,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="23380" y="954232"/>
-          <a:ext cx="1699780" cy="514350"/>
+          <a:ext cx="1517938" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -186,7 +189,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-ID" sz="1100" b="1"/>
-            <a:t>Isikan data user mulai dari baris ke - 2</a:t>
+            <a:t>Isikan data mahasiswa mulai dari baris ke - 2</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -196,15 +199,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>10392</xdr:colOff>
+      <xdr:colOff>19051</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>27710</xdr:rowOff>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>8659</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>8660</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -219,8 +222,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10392" y="27710"/>
-          <a:ext cx="5029199" cy="171450"/>
+          <a:off x="19051" y="19051"/>
+          <a:ext cx="5635335" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -265,15 +268,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
+      <xdr:colOff>8660</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>43295</xdr:rowOff>
+      <xdr:rowOff>25977</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>17318</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>17318</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>8659</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>173181</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -288,8 +291,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19051" y="233795"/>
-          <a:ext cx="5037858" cy="545523"/>
+          <a:off x="8660" y="216477"/>
+          <a:ext cx="5645726" cy="528204"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -334,15 +337,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>607000</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>182707</xdr:rowOff>
+      <xdr:colOff>433818</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>866</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>779318</xdr:colOff>
+      <xdr:colOff>606136</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>138545</xdr:rowOff>
+      <xdr:rowOff>147204</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -357,8 +360,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1801955" y="944707"/>
-          <a:ext cx="1150795" cy="527338"/>
+          <a:off x="1628773" y="953366"/>
+          <a:ext cx="1713636" cy="527338"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -392,32 +395,12 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-ID" sz="1100" b="1"/>
-            <a:t>Role</a:t>
+            <a:t>cek id_periode</a:t>
           </a:r>
-        </a:p>
-        <a:p>
           <a:r>
             <a:rPr lang="en-ID" sz="1100" b="1" baseline="0"/>
-            <a:t>4 = </a:t>
+            <a:t> pada halaman setting periode</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-ID" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Mahasiswa</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-ID" sz="1200" b="1" baseline="0"/>
-            <a:t>	</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
           <a:endParaRPr lang="en-ID" sz="1200" b="1"/>
         </a:p>
       </xdr:txBody>
@@ -426,13 +409,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>268433</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>17318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>119497</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>26844</xdr:rowOff>
@@ -490,13 +473,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>199160</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>52820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>50223</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>62346</xdr:rowOff>
@@ -514,8 +497,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5844887" y="433820"/>
-          <a:ext cx="1063336" cy="200026"/>
+          <a:off x="6451024" y="433820"/>
+          <a:ext cx="1063335" cy="200026"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -545,7 +528,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-ID" sz="1100" b="1"/>
-            <a:t>DATA USER</a:t>
+            <a:t>DATA MAHASISWA</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -554,13 +537,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>306533</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>112568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>268433</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>117331</xdr:rowOff>
@@ -614,16 +597,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>108961</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>13133</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>186315</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>200748</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200747</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>17896</xdr:rowOff>
+      <xdr:rowOff>578</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -638,7 +621,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5148552" y="584633"/>
+          <a:off x="5754688" y="567315"/>
           <a:ext cx="697923" cy="4763"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -668,6 +651,99 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>698787</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>187904</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>109105</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>143742</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A01BC976-FB58-43C6-AB21-65C852681B20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3435060" y="949904"/>
+          <a:ext cx="1713636" cy="527338"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" b="1"/>
+            <a:t>Role</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" b="1" baseline="0"/>
+            <a:t>4 = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Mahasiswa</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1200" b="1" baseline="0"/>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-ID" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -970,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D353E51-7D64-4FA3-8C77-E2E36EF94FAF}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,54 +1060,63 @@
     <col min="4" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>415526</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>415526</v>
       </c>
       <c r="E2">
+        <v>415526</v>
+      </c>
+      <c r="F2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>12757</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>12757</v>
+        <v>410830</v>
       </c>
       <c r="E3">
+        <v>410830</v>
+      </c>
+      <c r="F3">
         <v>4</v>
       </c>
     </row>
